--- a/xlsx/太空堡垒卡拉狄加_intext.xlsx
+++ b/xlsx/太空堡垒卡拉狄加_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>太空堡垒卡拉狄加</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E7%88%AD%E9%9C%B8_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>星際大爭霸 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_太空堡垒卡拉狄加</t>
+    <t>星际大争霸 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_太空堡垒卡拉狄加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E7%BA%8C%E5%8A%87</t>
   </si>
   <si>
-    <t>連續劇</t>
+    <t>连续剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%A7%91%E5%B9%BB</t>
   </si>
   <si>
-    <t>軍事科幻</t>
+    <t>军事科幻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%AD%8C%E5%8A%87</t>
   </si>
   <si>
-    <t>太空歌劇</t>
+    <t>太空歌剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%A5%A5%E8%8E%AB%E6%96%AF</t>
@@ -65,37 +65,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%A0%E8%A5%BF%E5%8D%A1%C2%B7%E6%B5%B7%E7%88%BE%E5%BC%97</t>
   </si>
   <si>
-    <t>翠西卡·海爾弗</t>
+    <t>翠西卡·海尔弗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E7%B1%B3%C2%B7%E7%8F%AD%E6%9F%8F</t>
   </si>
   <si>
-    <t>傑米·班柏</t>
+    <t>杰米·班柏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E7%A5%89%E5%9E%A0_(%E6%BC%94%E5%93%A1)</t>
   </si>
   <si>
-    <t>朴祉垠 (演員)</t>
+    <t>朴祉垠 (演员)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E8%8E%AB%C2%B7%E6%BD%98%E5%B0%BC%E5%87%B1</t>
   </si>
   <si>
-    <t>塔莫·潘尼凱</t>
+    <t>塔莫·潘尼凯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%80%AB%C2%B7%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>亞倫·道格拉斯</t>
+    <t>亚伦·道格拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%A0%A1%E5%A3%98%E5%8D%A1%E6%8B%89%E7%8B%84%E5%8A%A0%E5%8A%87%E9%9B%86%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>太空堡壘卡拉狄加劇集列表</t>
+    <t>太空堡垒卡拉狄加剧集列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>不列顛哥倫比亞省</t>
+    <t>不列颠哥伦比亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF</t>
   </si>
   <si>
-    <t>溫哥華</t>
+    <t>温哥华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Syfy</t>
@@ -143,25 +143,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%A0%A1%E5%A3%98%E5%8D%A1%E6%8B%89%E7%8B%84%E5%8A%A0_(%E8%BF%B7%E4%BD%A0%E5%BD%B1%E9%9B%86)</t>
   </si>
   <si>
-    <t>太空堡壘卡拉狄加 (迷你影集)</t>
+    <t>太空堡垒卡拉狄加 (迷你影集)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E7%88%AD%E9%9C%B8_(1978%E5%B9%B4%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>星際大爭霸 (1978年電視劇)</t>
+    <t>星际大争霸 (1978年电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E7%88%AD%E9%9C%B81980</t>
   </si>
   <si>
-    <t>星際大爭霸1980</t>
+    <t>星际大争霸1980</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%A0%A1%E5%A3%98%E5%8D%A1%E6%8B%89%E7%8B%84%E5%8A%A0%EF%BC%9A%E5%88%A9%E5%88%83</t>
   </si>
   <si>
-    <t>太空堡壘卡拉狄加：利刃</t>
+    <t>太空堡垒卡拉狄加：利刃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%A0%A1%E5%9E%92%E5%8D%A1%E6%8B%89%E7%8B%84%E5%8A%A0%EF%BC%9A%E8%AE%A1%E5%88%92</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -209,19 +209,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%8D%9A%E8%BF%AA%E7%8D%8E</t>
   </si>
   <si>
-    <t>皮博迪獎</t>
+    <t>皮博迪奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>艾美獎</t>
+    <t>艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>黃金時段艾美獎</t>
+    <t>黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%8C%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%9A%86%E4%BA%BA</t>
   </si>
   <si>
-    <t>賽隆人</t>
+    <t>赛隆人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Caprica_(TV_series)</t>
@@ -251,43 +251,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電視電影</t>
+    <t>电视电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%8A%87</t>
   </si>
   <si>
-    <t>網絡劇</t>
+    <t>网络剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E7%88%AD%E9%9C%B81978</t>
   </si>
   <si>
-    <t>星際大爭霸1978</t>
+    <t>星际大争霸1978</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>機器人</t>
+    <t>机器人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9A%86%E4%BA%BA</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Laura_Roslin</t>
@@ -317,33 +317,27 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E9%A0%93%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛頓力學</t>
+    <t>牛顿力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E5%80%AB5%E8%99%9F</t>
   </si>
   <si>
-    <t>巴比倫5號</t>
+    <t>巴比伦5号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E9%A3%9B%E5%B0%87</t>
   </si>
   <si>
-    <t>銀河飛將</t>
+    <t>银河飞将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Network_Ten</t>
   </si>
   <si>
@@ -395,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BF%A0%E8%A5%BF%E4%BA%9E%C2%B7%E6%B5%B7%E7%88%BE%E5%BC%97</t>
   </si>
   <si>
-    <t>翠西亞·海爾弗</t>
+    <t>翠西亚·海尔弗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Katee_Sackhoff</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%9D%8E%E8%B2%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>保羅·坎貝爾</t>
+    <t>保罗·坎贝尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kandyse_McClure</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%80%AB%C2%B7%E5%9F%BA%E6%96%AF%C2%B7%E9%9B%B7%E5%B0%BC</t>
   </si>
   <si>
-    <t>卡倫·基斯·雷尼</t>
+    <t>卡伦·基斯·雷尼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kate_Vernon</t>
@@ -467,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%B2%E8%A5%BF%C2%B7%E5%8B%9E%E5%80%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>露西·勞倫斯</t>
+    <t>露西·劳伦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%8C%E4%B8%8A%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>桌上遊戲</t>
+    <t>桌上游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Battlestar_Galactica_Online</t>
@@ -503,55 +497,55 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%98%9F%E9%9A%9B%E5%A4%A7%E7%88%AD%E9%9C%B8</t>
   </si>
   <si>
-    <t>Template talk-星際大爭霸</t>
+    <t>Template talk-星际大争霸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E7%88%AD%E9%9C%B82005</t>
   </si>
   <si>
-    <t>星際大爭霸2005</t>
+    <t>星际大争霸2005</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E6%98%9F%E7%B4%9A%E6%98%9F%E9%9A%9B%E6%88%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>戰星級星際戰艦</t>
+    <t>战星级星际战舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E8%9B%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>毒蛇機</t>
+    <t>毒蛇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%AA%E7%8D%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>怪獸機</t>
+    <t>怪兽机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%9A%86%E5%9F%BA%E5%9C%B0%E8%89%A6</t>
   </si>
   <si>
-    <t>賽隆基地艦</t>
+    <t>赛隆基地舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%9A%86%E4%BE%B5%E7%95%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>賽隆侵略機</t>
+    <t>赛隆侵略机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E7%88%AD%E9%9C%B8Online</t>
   </si>
   <si>
-    <t>星際大爭霸Online</t>
+    <t>星际大争霸Online</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2593,7 +2587,7 @@
         <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2619,10 +2613,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -2648,10 +2642,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2677,10 +2671,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2706,10 +2700,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2735,10 +2729,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2764,10 +2758,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2793,10 +2787,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2822,10 +2816,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2851,10 +2845,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2880,10 +2874,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2909,10 +2903,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2938,10 +2932,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2967,10 +2961,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2996,10 +2990,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3025,10 +3019,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3054,10 +3048,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3083,10 +3077,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3112,10 +3106,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3141,10 +3135,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3170,10 +3164,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3199,10 +3193,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3228,10 +3222,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3257,10 +3251,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3286,10 +3280,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3315,10 +3309,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3344,10 +3338,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3373,10 +3367,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3402,10 +3396,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -3489,10 +3483,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3547,10 +3541,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3576,10 +3570,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3605,10 +3599,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -3634,10 +3628,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3663,10 +3657,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3692,10 +3686,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3721,10 +3715,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -3750,10 +3744,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3779,10 +3773,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3808,10 +3802,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
